--- a/aiurt-module-system/src/main/resources/templates/emergencyTrainingRecordXls.xlsx
+++ b/aiurt-module-system/src/main/resources/templates/emergencyTrainingRecordXls.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25785" windowHeight="11145"/>
+    <workbookView windowWidth="25545" windowHeight="8565"/>
   </bookViews>
   <sheets>
-    <sheet name="导入模板" sheetId="1" r:id="rId1"/>
+    <sheet name="应急队伍训练记录导入模板" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -1399,8 +1399,8 @@
   </sheetPr>
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="16.5" customHeight="1"/>

--- a/aiurt-module-system/src/main/resources/templates/emergencyTrainingRecordXls.xlsx
+++ b/aiurt-module-system/src/main/resources/templates/emergencyTrainingRecordXls.xlsx
@@ -4,158 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25545" windowHeight="8565"/>
+    <workbookView windowWidth="18360" windowHeight="11490"/>
   </bookViews>
   <sheets>
-    <sheet name="应急队伍训练记录导入模板" sheetId="1" r:id="rId1"/>
+    <sheet name="应急队伍训练记录" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
-  <si>
-    <t>应急队伍训练记录导入模板</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>应急队伍训练记录导入模板</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>填写须知：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1.请勿增加、删除、或修改表格中的字段顺序、字段名称；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2.请严格按照数据规范填写，并填写完所有必填项，红底白字列为必填项；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>字段说明：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>训练时间：yyyy-mm-dd；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>训练地点：线路/站点/位置；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>参加训练人员：用分号“：”分隔；</t>
-    </r>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+  <si>
+    <t>应急队伍训练记录</t>
   </si>
   <si>
     <t>训练时间</t>
@@ -231,7 +92,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="26">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -423,17 +284,6 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="36">
@@ -1006,7 +856,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1028,12 +878,6 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
@@ -1072,9 +916,6 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1397,10 +1238,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="16.5" customHeight="1"/>
@@ -1444,37 +1285,43 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" ht="122.25" customHeight="1" spans="1:12">
+    <row r="3" customHeight="1" spans="1:12">
       <c r="A3" s="6"/>
       <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
+      <c r="C3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="5"/>
       <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="22"/>
+      <c r="F3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
     <row r="4" customHeight="1" spans="1:12">
       <c r="A4" s="6"/>
-      <c r="B4" s="9" t="s">
-        <v>2</v>
+      <c r="B4" s="7" t="s">
+        <v>5</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D4" s="5"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="11" t="s">
-        <v>4</v>
+      <c r="E4" s="8"/>
+      <c r="F4" s="9" t="s">
+        <v>7</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
@@ -1484,167 +1331,144 @@
     </row>
     <row r="5" customHeight="1" spans="1:12">
       <c r="A5" s="6"/>
-      <c r="B5" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="5" t="s">
+      <c r="B5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
+      <c r="C5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="12"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
     <row r="6" customHeight="1" spans="1:12">
       <c r="A6" s="6"/>
-      <c r="B6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="12" t="s">
+      <c r="B6" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="14"/>
+      <c r="C6" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
     <row r="7" customHeight="1" spans="1:12">
       <c r="A7" s="6"/>
-      <c r="B7" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="18" t="s">
+      <c r="B7" s="14"/>
+      <c r="C7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
+      <c r="D7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
     </row>
     <row r="8" customHeight="1" spans="1:12">
       <c r="A8" s="6"/>
-      <c r="B8" s="16"/>
+      <c r="B8" s="7" t="s">
+        <v>20</v>
+      </c>
       <c r="C8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
+        <v>21</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
     <row r="9" customHeight="1" spans="1:12">
       <c r="A9" s="6"/>
-      <c r="B9" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="5"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
     <row r="10" customHeight="1" spans="1:12">
       <c r="A10" s="6"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
     <row r="11" customHeight="1" spans="1:12">
       <c r="A11" s="6"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" customHeight="1" spans="1:12">
-      <c r="A12" s="6"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-    </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="14">
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="G3:J3"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="G4:J4"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="G5:J5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="K2:L12"/>
-    <mergeCell ref="C9:J10"/>
-    <mergeCell ref="B11:J12"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="K2:L11"/>
+    <mergeCell ref="C8:J9"/>
+    <mergeCell ref="B10:J11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
